--- a/Dataset/Inventory.xlsx
+++ b/Dataset/Inventory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -465,15 +465,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K571"/>
+  <dimension ref="A1:K551"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
+      <selection activeCell="A552" sqref="A552:K571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -19761,706 +19762,6 @@
         <v>95750</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A552">
-        <v>551</v>
-      </c>
-      <c r="B552">
-        <v>551</v>
-      </c>
-      <c r="C552" s="1">
-        <v>45146</v>
-      </c>
-      <c r="D552" t="s">
-        <v>28</v>
-      </c>
-      <c r="E552" t="s">
-        <v>19</v>
-      </c>
-      <c r="F552" t="s">
-        <v>18</v>
-      </c>
-      <c r="G552" t="s">
-        <v>12</v>
-      </c>
-      <c r="H552">
-        <v>124</v>
-      </c>
-      <c r="I552">
-        <v>248</v>
-      </c>
-      <c r="J552">
-        <v>60000</v>
-      </c>
-      <c r="K552">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A553">
-        <v>552</v>
-      </c>
-      <c r="B553">
-        <v>552</v>
-      </c>
-      <c r="C553" s="1">
-        <v>45146</v>
-      </c>
-      <c r="D553" t="s">
-        <v>16</v>
-      </c>
-      <c r="E553" t="s">
-        <v>27</v>
-      </c>
-      <c r="F553" t="s">
-        <v>29</v>
-      </c>
-      <c r="G553" t="s">
-        <v>31</v>
-      </c>
-      <c r="H553">
-        <v>172</v>
-      </c>
-      <c r="I553">
-        <v>860</v>
-      </c>
-      <c r="J553">
-        <v>20000</v>
-      </c>
-      <c r="K553">
-        <v>104000</v>
-      </c>
-    </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A554">
-        <v>553</v>
-      </c>
-      <c r="B554">
-        <v>553</v>
-      </c>
-      <c r="C554" s="1">
-        <v>45149</v>
-      </c>
-      <c r="D554" t="s">
-        <v>28</v>
-      </c>
-      <c r="E554" t="s">
-        <v>22</v>
-      </c>
-      <c r="F554" t="s">
-        <v>35</v>
-      </c>
-      <c r="G554" t="s">
-        <v>15</v>
-      </c>
-      <c r="H554">
-        <v>175</v>
-      </c>
-      <c r="I554">
-        <v>700</v>
-      </c>
-      <c r="J554">
-        <v>28000</v>
-      </c>
-      <c r="K554">
-        <v>98000</v>
-      </c>
-    </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A555">
-        <v>554</v>
-      </c>
-      <c r="B555">
-        <v>554</v>
-      </c>
-      <c r="C555" s="1">
-        <v>45151</v>
-      </c>
-      <c r="D555" t="s">
-        <v>28</v>
-      </c>
-      <c r="E555" t="s">
-        <v>22</v>
-      </c>
-      <c r="F555" t="s">
-        <v>29</v>
-      </c>
-      <c r="G555" t="s">
-        <v>12</v>
-      </c>
-      <c r="H555">
-        <v>170</v>
-      </c>
-      <c r="I555">
-        <v>680</v>
-      </c>
-      <c r="J555">
-        <v>20000</v>
-      </c>
-      <c r="K555">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A556">
-        <v>555</v>
-      </c>
-      <c r="B556">
-        <v>555</v>
-      </c>
-      <c r="C556" s="1">
-        <v>45152</v>
-      </c>
-      <c r="D556" t="s">
-        <v>9</v>
-      </c>
-      <c r="E556" t="s">
-        <v>36</v>
-      </c>
-      <c r="F556" t="s">
-        <v>30</v>
-      </c>
-      <c r="G556" t="s">
-        <v>31</v>
-      </c>
-      <c r="H556">
-        <v>123</v>
-      </c>
-      <c r="I556">
-        <v>369</v>
-      </c>
-      <c r="J556">
-        <v>32000</v>
-      </c>
-      <c r="K556">
-        <v>83250</v>
-      </c>
-    </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A557">
-        <v>556</v>
-      </c>
-      <c r="B557">
-        <v>556</v>
-      </c>
-      <c r="C557" s="1">
-        <v>45152</v>
-      </c>
-      <c r="D557" t="s">
-        <v>13</v>
-      </c>
-      <c r="E557" t="s">
-        <v>21</v>
-      </c>
-      <c r="F557" t="s">
-        <v>14</v>
-      </c>
-      <c r="G557" t="s">
-        <v>15</v>
-      </c>
-      <c r="H557">
-        <v>144</v>
-      </c>
-      <c r="I557">
-        <v>576</v>
-      </c>
-      <c r="J557">
-        <v>36000</v>
-      </c>
-      <c r="K557">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A558">
-        <v>557</v>
-      </c>
-      <c r="B558">
-        <v>557</v>
-      </c>
-      <c r="C558" s="1">
-        <v>45152</v>
-      </c>
-      <c r="D558" t="s">
-        <v>16</v>
-      </c>
-      <c r="E558" t="s">
-        <v>22</v>
-      </c>
-      <c r="F558" t="s">
-        <v>35</v>
-      </c>
-      <c r="G558" t="s">
-        <v>15</v>
-      </c>
-      <c r="H558">
-        <v>150</v>
-      </c>
-      <c r="I558">
-        <v>600</v>
-      </c>
-      <c r="J558">
-        <v>28000</v>
-      </c>
-      <c r="K558">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A559">
-        <v>558</v>
-      </c>
-      <c r="B559">
-        <v>558</v>
-      </c>
-      <c r="C559" s="1">
-        <v>45152</v>
-      </c>
-      <c r="D559" t="s">
-        <v>13</v>
-      </c>
-      <c r="E559" t="s">
-        <v>25</v>
-      </c>
-      <c r="F559" t="s">
-        <v>14</v>
-      </c>
-      <c r="G559" t="s">
-        <v>12</v>
-      </c>
-      <c r="H559">
-        <v>200</v>
-      </c>
-      <c r="I559">
-        <v>600</v>
-      </c>
-      <c r="J559">
-        <v>36000</v>
-      </c>
-      <c r="K559">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A560">
-        <v>559</v>
-      </c>
-      <c r="B560">
-        <v>559</v>
-      </c>
-      <c r="C560" s="1">
-        <v>45153</v>
-      </c>
-      <c r="D560" t="s">
-        <v>13</v>
-      </c>
-      <c r="E560" t="s">
-        <v>19</v>
-      </c>
-      <c r="F560" t="s">
-        <v>17</v>
-      </c>
-      <c r="G560" t="s">
-        <v>31</v>
-      </c>
-      <c r="H560">
-        <v>171</v>
-      </c>
-      <c r="I560">
-        <v>684</v>
-      </c>
-      <c r="J560">
-        <v>24000</v>
-      </c>
-      <c r="K560">
-        <v>87000</v>
-      </c>
-    </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A561">
-        <v>560</v>
-      </c>
-      <c r="B561">
-        <v>560</v>
-      </c>
-      <c r="C561" s="1">
-        <v>45154</v>
-      </c>
-      <c r="D561" t="s">
-        <v>24</v>
-      </c>
-      <c r="E561" t="s">
-        <v>25</v>
-      </c>
-      <c r="F561" t="s">
-        <v>26</v>
-      </c>
-      <c r="G561" t="s">
-        <v>15</v>
-      </c>
-      <c r="H561">
-        <v>75</v>
-      </c>
-      <c r="I561">
-        <v>225</v>
-      </c>
-      <c r="J561">
-        <v>24000</v>
-      </c>
-      <c r="K561">
-        <v>54750</v>
-      </c>
-    </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A562">
-        <v>561</v>
-      </c>
-      <c r="B562">
-        <v>561</v>
-      </c>
-      <c r="C562" s="1">
-        <v>45175</v>
-      </c>
-      <c r="D562" t="s">
-        <v>9</v>
-      </c>
-      <c r="E562" t="s">
-        <v>27</v>
-      </c>
-      <c r="F562" t="s">
-        <v>18</v>
-      </c>
-      <c r="G562" t="s">
-        <v>12</v>
-      </c>
-      <c r="H562">
-        <v>170</v>
-      </c>
-      <c r="I562">
-        <v>340</v>
-      </c>
-      <c r="J562">
-        <v>60000</v>
-      </c>
-      <c r="K562">
-        <v>131750</v>
-      </c>
-    </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A563">
-        <v>562</v>
-      </c>
-      <c r="B563">
-        <v>562</v>
-      </c>
-      <c r="C563" s="1">
-        <v>45177</v>
-      </c>
-      <c r="D563" t="s">
-        <v>13</v>
-      </c>
-      <c r="E563" t="s">
-        <v>21</v>
-      </c>
-      <c r="F563" t="s">
-        <v>20</v>
-      </c>
-      <c r="G563" t="s">
-        <v>12</v>
-      </c>
-      <c r="H563">
-        <v>197</v>
-      </c>
-      <c r="I563">
-        <v>591</v>
-      </c>
-      <c r="J563">
-        <v>40000</v>
-      </c>
-      <c r="K563">
-        <v>112000</v>
-      </c>
-    </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A564">
-        <v>563</v>
-      </c>
-      <c r="B564">
-        <v>563</v>
-      </c>
-      <c r="C564" s="1">
-        <v>45179</v>
-      </c>
-      <c r="D564" t="s">
-        <v>13</v>
-      </c>
-      <c r="E564" t="s">
-        <v>21</v>
-      </c>
-      <c r="F564" t="s">
-        <v>32</v>
-      </c>
-      <c r="G564" t="s">
-        <v>31</v>
-      </c>
-      <c r="H564">
-        <v>99</v>
-      </c>
-      <c r="I564">
-        <v>396</v>
-      </c>
-      <c r="J564">
-        <v>32000</v>
-      </c>
-      <c r="K564">
-        <v>68000</v>
-      </c>
-    </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A565">
-        <v>564</v>
-      </c>
-      <c r="B565">
-        <v>564</v>
-      </c>
-      <c r="C565" s="1">
-        <v>45178</v>
-      </c>
-      <c r="D565" t="s">
-        <v>13</v>
-      </c>
-      <c r="E565" t="s">
-        <v>27</v>
-      </c>
-      <c r="F565" t="s">
-        <v>32</v>
-      </c>
-      <c r="G565" t="s">
-        <v>31</v>
-      </c>
-      <c r="H565">
-        <v>100</v>
-      </c>
-      <c r="I565">
-        <v>400</v>
-      </c>
-      <c r="J565">
-        <v>32000</v>
-      </c>
-      <c r="K565">
-        <v>68000</v>
-      </c>
-    </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A566">
-        <v>565</v>
-      </c>
-      <c r="B566">
-        <v>565</v>
-      </c>
-      <c r="C566" s="1">
-        <v>45181</v>
-      </c>
-      <c r="D566" t="s">
-        <v>16</v>
-      </c>
-      <c r="E566" t="s">
-        <v>25</v>
-      </c>
-      <c r="F566" t="s">
-        <v>35</v>
-      </c>
-      <c r="G566" t="s">
-        <v>12</v>
-      </c>
-      <c r="H566">
-        <v>196</v>
-      </c>
-      <c r="I566">
-        <v>588</v>
-      </c>
-      <c r="J566">
-        <v>28000</v>
-      </c>
-      <c r="K566">
-        <v>124000</v>
-      </c>
-    </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A567">
-        <v>566</v>
-      </c>
-      <c r="B567">
-        <v>566</v>
-      </c>
-      <c r="C567" s="1">
-        <v>45185</v>
-      </c>
-      <c r="D567" t="s">
-        <v>13</v>
-      </c>
-      <c r="E567" t="s">
-        <v>36</v>
-      </c>
-      <c r="F567" t="s">
-        <v>32</v>
-      </c>
-      <c r="G567" t="s">
-        <v>31</v>
-      </c>
-      <c r="H567">
-        <v>96</v>
-      </c>
-      <c r="I567">
-        <v>384</v>
-      </c>
-      <c r="J567">
-        <v>32000</v>
-      </c>
-      <c r="K567">
-        <v>68000</v>
-      </c>
-    </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A568">
-        <v>567</v>
-      </c>
-      <c r="B568">
-        <v>567</v>
-      </c>
-      <c r="C568" s="1">
-        <v>45186</v>
-      </c>
-      <c r="D568" t="s">
-        <v>28</v>
-      </c>
-      <c r="E568" t="s">
-        <v>36</v>
-      </c>
-      <c r="F568" t="s">
-        <v>30</v>
-      </c>
-      <c r="G568" t="s">
-        <v>15</v>
-      </c>
-      <c r="H568">
-        <v>145</v>
-      </c>
-      <c r="I568">
-        <v>435</v>
-      </c>
-      <c r="J568">
-        <v>32000</v>
-      </c>
-      <c r="K568">
-        <v>92000</v>
-      </c>
-    </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A569">
-        <v>568</v>
-      </c>
-      <c r="B569">
-        <v>568</v>
-      </c>
-      <c r="C569" s="1">
-        <v>45185</v>
-      </c>
-      <c r="D569" t="s">
-        <v>9</v>
-      </c>
-      <c r="E569" t="s">
-        <v>25</v>
-      </c>
-      <c r="F569" t="s">
-        <v>30</v>
-      </c>
-      <c r="G569" t="s">
-        <v>31</v>
-      </c>
-      <c r="H569">
-        <v>196</v>
-      </c>
-      <c r="I569">
-        <v>588</v>
-      </c>
-      <c r="J569">
-        <v>32000</v>
-      </c>
-      <c r="K569">
-        <v>114000</v>
-      </c>
-    </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A570">
-        <v>569</v>
-      </c>
-      <c r="B570">
-        <v>569</v>
-      </c>
-      <c r="C570" s="1">
-        <v>45189</v>
-      </c>
-      <c r="D570" t="s">
-        <v>28</v>
-      </c>
-      <c r="E570" t="s">
-        <v>36</v>
-      </c>
-      <c r="F570" t="s">
-        <v>23</v>
-      </c>
-      <c r="G570" t="s">
-        <v>15</v>
-      </c>
-      <c r="H570">
-        <v>146</v>
-      </c>
-      <c r="I570">
-        <v>584</v>
-      </c>
-      <c r="J570">
-        <v>32000</v>
-      </c>
-      <c r="K570">
-        <v>92000</v>
-      </c>
-    </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A571">
-        <v>570</v>
-      </c>
-      <c r="B571">
-        <v>570</v>
-      </c>
-      <c r="C571" s="1">
-        <v>45190</v>
-      </c>
-      <c r="D571" t="s">
-        <v>24</v>
-      </c>
-      <c r="E571" t="s">
-        <v>22</v>
-      </c>
-      <c r="F571" t="s">
-        <v>26</v>
-      </c>
-      <c r="G571" t="s">
-        <v>31</v>
-      </c>
-      <c r="H571">
-        <v>96</v>
-      </c>
-      <c r="I571">
-        <v>384</v>
-      </c>
-      <c r="J571">
-        <v>24000</v>
-      </c>
-      <c r="K571">
-        <v>65000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
